--- a/data/aggregated_single_ext/bs_auto2.xlsx
+++ b/data/aggregated_single_ext/bs_auto2.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.655850622406639</v>
+        <v>0.6829002036659877</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>221.5981838184647</v>
+        <v>478.5135725967414</v>
       </c>
     </row>
   </sheetData>

--- a/data/aggregated_single_ext/bs_auto2.xlsx
+++ b/data/aggregated_single_ext/bs_auto2.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6829002036659877</v>
+        <v>0.655850622406639</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>478.5135725967414</v>
+        <v>221.5981838184647</v>
       </c>
     </row>
   </sheetData>
